--- a/biology/Botanique/Anthoceros/Anthoceros.xlsx
+++ b/biology/Botanique/Anthoceros/Anthoceros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthoceros est le genre typique du groupe des Anthocérotes et appartient à la famille des Anthocerotaceae. Ce genre est réparti dans le monde entier.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Anthoceros vient du grec anthos, fleur et ceros, corne, littéralement « fleur en corne », allusion aux sporophytes caractéristiques en forme de corne que produisent toutes les Anthocérotes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Anthoceros vient du grec anthos, fleur et ceros, corne, littéralement « fleur en corne », allusion aux sporophytes caractéristiques en forme de corne que produisent toutes les Anthocérotes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces d'Anthoceros se caractérisent par un thalle vert de petite à moyenne taille plus ou moins lobé le long des marges. Les spores sont gris foncé, brun foncé ou noires, c'est la façon la plus facile de distinguer les espèces d’ Anthoceros de celles du genre apparenté Phaeoceros, qui produit des spores qui sont jaunes.
 Les sporophytes d'Anthoceros sont plus grands et beaucoup plus complexes que ceux de Riccia, Marchantia et Pellia. Il se différencie en un pied, une constriction comme zone intermédiaire et une capsule. Il n'y a pas de seta. Il se forme en grappes à partir de la surface dorsale du thalle, chacune entourée à la base d'un involucre tubulaire.
@@ -576,9 +592,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (4 mars 2019)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 mars 2019) :
 Anthoceros adscendens Lehm. &amp; Lindenb.
 Anthoceros agrestis Paton
 Anthoceros alpinus Paton
@@ -609,7 +627,7 @@
 Anthoceros telaganus Steph.
 Anthoceros tristanianus J.C.Villarreal
 Anthoceros tuberculatus Lehm. &amp; Lindenb.
-Selon Catalogue of Life                                   (4 mars 2019)[4] :
+Selon Catalogue of Life                                   (4 mars 2019) :
 Anthoceros adscendens Lehm. &amp; Lindenb.
 Anthoceros aethyopicus Gola
 Anthoceros agrestis Paton
@@ -674,7 +692,7 @@
 Anthoceros tristanianus J.C.Villarreal, J.J.Engel &amp; Váňa
 Anthoceros tuberculatus Lehm. &amp; Lindenb.
 Anthoceros venosus Lindenb. &amp; Gottsche
-Selon ITIS      (4 mars 2019)[5] :
+Selon ITIS      (4 mars 2019) :
 Anthoceros adscendens Lehm. &amp; Lindenb.
 Anthoceros agrestis Paton
 Anthoceros alpinus Steph.
@@ -733,7 +751,7 @@
 Anthoceros tristanianus J.C. Villarreal
 Anthoceros tuberculatus Lehm. &amp; Lindenb.
 Anthoceros venosus Lindenb. &amp; Gottsche
-Selon The Plant List            (4 mars 2019)[6] :
+Selon The Plant List            (4 mars 2019) :
 Anthoceros adscendens Lehm. &amp; Lindenb.
 Anthoceros aethyopicus Gola
 Anthoceros agrestis Paton
@@ -791,7 +809,7 @@
 Anthoceros tuberulatus Lehm. &amp; Lindenb.
 Anthoceros verruculosus J. Haseg.
 Anthoceros volkensii Stephani
-Selon Tropicos                                           (4 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Anthoceros adscendens Lehm. &amp; Lindenb.
 Anthoceros aethyopicus Gola
 Anthoceros affinis Schiffn.
